--- a/biology/Botanique/Parthénocisse/Parthénocisse.xlsx
+++ b/biology/Botanique/Parthénocisse/Parthénocisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parth%C3%A9nocisse</t>
+          <t>Parthénocisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parthenocissus
 Parthenocissus est un genre de plantes de la famille des Vitaceae. Il s'agit de plantes grimpantes souvent appelées vignes-vierges en traduction littérale du nom latin (de parthenos, vierge et cissus, grimpant).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parth%C3%A9nocisse</t>
+          <t>Parthénocisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont en général des plantes utilisées comme couvre-murs, à feuilles caduques. Les tiges s'accrochent parfois très facilement à leur support grâce à des vrilles courtes et adhésives formant des ventouses. La vigne vierge n'abîme ni les crépis, ni les toitures. Plus l'exposition au soleil est grande, plus les couleurs d'automne seront vives.
 Les fruits sont des baies de 6-12 mm de diamètre, de couleur bleu noir, légèrement pruiné. Elles contiennent de l'acide oxalique qui est un composé toxique pour les mammifères mais n'empêche pas les oiseaux (comme les étourneaux) de les consommer l'hiver.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parth%C3%A9nocisse</t>
+          <t>Parthénocisse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (2 oct. 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (2 oct. 2014) :
 Parthenocissus heptaphylla (Buckley) Britton ex Small
 Parthenocissus quinquefolia (L.) Planch.
 Parthenocissus tricuspidata (Siebold &amp; Zucc.) Planch.
 Parthenocissus vitacea (Knerr) Hitchc.
-Selon NCBI  (2 oct. 2014)[2] :
+Selon NCBI  (2 oct. 2014) :
 Parthenocissus chinensis
 Parthenocissus dalzielii
 Parthenocissus feddei
@@ -567,7 +583,7 @@
 Parthenocissus suberosa
 Parthenocissus tricuspidata
 Parthenocissus vitacea
-Selon Tropicos                                           (2 oct. 2014)[3] :
+Selon Tropicos                                           (2 oct. 2014) :
 Parthenocissus assamica Craib
 Parthenocissus austro-orientalis F.P. Metcalf
 Parthenocissus chinensis C.L. Li
@@ -603,7 +619,7 @@
 Parthenocissus tricuspidata (Siebold &amp; Zucc.) Planch.
 Parthenocissus vicaryana (Kurz) H.B. Naithani
 Parthenocissus vitacea (Knerr) Hitchc.
-Selon World Register of Marine Species                               (2 oct. 2014)[4] :
+Selon World Register of Marine Species                               (2 oct. 2014) :
 Parthenocissus quinquefolia (Linnaeus) Planchon, 1887</t>
         </is>
       </c>
